--- a/test_data/test.xlsx
+++ b/test_data/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7950" windowWidth="20390" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7956" windowWidth="20388" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>1.373105</t>
+    <t>1.902844</t>
   </si>
   <si>
     <t>pass</t>
@@ -95,13 +95,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "58.250.17.6", 
+    "X-Forwarded-For": "27.100.17.217", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "a7565114-a7a3-4954-a9aa-3579799169af", 
-    "X-Request-Start": "1533196951761"
-  }, 
-  "origin": "58.250.17.6", 
+    "X-Request-Id": "3798cc10-1376-4065-b7fe-a818f99eaf99", 
+    "X-Request-Start": "1535094497144"
+  }, 
+  "origin": "27.100.17.217", 
   "url": "https://httpbin.org/get?show_env=1"
 }
 </t>
@@ -110,7 +110,7 @@
     <t>{'show_env': 2}</t>
   </si>
   <si>
-    <t>1.110497</t>
+    <t>1.241232</t>
   </si>
   <si>
     <t>fail</t>
@@ -130,13 +130,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "58.250.17.6", 
+    "X-Forwarded-For": "27.100.17.217", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "0f6e0b24-ab39-4645-918e-407c4b9e85e2", 
-    "X-Request-Start": "1533196953052"
-  }, 
-  "origin": "58.250.17.6", 
+    "X-Request-Id": "42678231-dd66-4c28-8842-9c9de99b7b58", 
+    "X-Request-Start": "1535094498590"
+  }, 
+  "origin": "27.100.17.217", 
   "url": "https://httpbin.org/get?show_env=2"
 }
 </t>
@@ -148,7 +148,7 @@
     <t>close</t>
   </si>
   <si>
-    <t>1.087548</t>
+    <t>1.310366</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -165,13 +165,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "58.250.17.6", 
+    "X-Forwarded-For": "27.100.17.217", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "68992115-e6af-418b-b949-0bbd6c8574e5", 
-    "X-Request-Start": "1533196954296"
-  }, 
-  "origin": "58.250.17.6", 
+    "X-Request-Id": "4f78664b-2f02-43b7-adcb-a2f4cb81ff3b", 
+    "X-Request-Start": "1535094500073"
+  }, 
+  "origin": "27.100.17.217", 
   "url": "https://httpbin.org/get?show_env=3"
 }
 </t>
@@ -180,7 +180,7 @@
     <t>{'show_env': 4}</t>
   </si>
   <si>
-    <t>1.123334</t>
+    <t>1.361165</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -197,13 +197,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "58.250.17.6", 
+    "X-Forwarded-For": "27.100.17.217", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "a0901f68-95f1-44eb-97e7-2d4a293b2b4b", 
-    "X-Request-Start": "1533196955586"
-  }, 
-  "origin": "58.250.17.6", 
+    "X-Request-Id": "4fe19977-0d22-4705-a1c0-5c5bf5d8d06d", 
+    "X-Request-Start": "1535094501631"
+  }, 
+  "origin": "27.100.17.217", 
   "url": "https://httpbin.org/get?show_env=4"
 }
 </t>
@@ -212,12 +212,108 @@
     <t>{'show_env': 5}</t>
   </si>
   <si>
-    <t>1.1475</t>
+    <t>1.237314</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
     "show_env": "5"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "27.100.17.217", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "38d9a886-6fb6-4586-a3ed-e849751c1a1b", 
+    "X-Request-Start": "1535094503018"
+  }, 
+  "origin": "27.100.17.217", 
+  "url": "https://httpbin.org/get?show_env=5"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 6}</t>
+  </si>
+  <si>
+    <t>3.278743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "6"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "27.100.17.217", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "0bd9b52a-c275-4db5-b012-7c3dc9867e44", 
+    "X-Request-Start": "1535094506427"
+  }, 
+  "origin": "27.100.17.217", 
+  "url": "https://httpbin.org/get?show_env=6"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 7}</t>
+  </si>
+  <si>
+    <t>1.217536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "7"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "27.100.17.217", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "72c850fc-d189-439c-8e34-e9488c44fd22", 
+    "X-Request-Start": "1535094507764"
+  }, 
+  "origin": "27.100.17.217", 
+  "url": "https://httpbin.org/get?show_env=7"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 8}</t>
+  </si>
+  <si>
+    <t>1.599583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "8"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -229,27 +325,91 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "58.250.17.6", 
+    "X-Forwarded-For": "27.100.17.217", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "dd8bbb66-8b6d-484e-a5d5-22b0d3658c20", 
-    "X-Request-Start": "1533196956900"
-  }, 
-  "origin": "58.250.17.6", 
-  "url": "https://httpbin.org/get?show_env=5"
+    "X-Request-Id": "02049abd-a5ba-431f-a2d4-18d5270d50b5", 
+    "X-Request-Start": "1535094509638"
+  }, 
+  "origin": "27.100.17.217", 
+  "url": "https://httpbin.org/get?show_env=8"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 6}</t>
-  </si>
-  <si>
-    <t>1.141372</t>
+    <t>{'show_env': 9}</t>
+  </si>
+  <si>
+    <t>1.296288</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "6"
+    "show_env": "9"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "27.100.17.217", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "d7123a7e-b461-42dd-af56-9e11299ab8a4", 
+    "X-Request-Start": "1535094511116"
+  }, 
+  "origin": "27.100.17.217", 
+  "url": "https://httpbin.org/get?show_env=9"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 10}</t>
+  </si>
+  <si>
+    <t>1.868364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "10"
+  }, 
+  "headers": {
+    "Accept": "*/*", 
+    "Accept-Encoding": "gzip, deflate", 
+    "Connect-Time": "0", 
+    "Connection": "close", 
+    "Content-Length": "2", 
+    "Host": "httpbin.org", 
+    "Total-Route-Time": "0", 
+    "User-Agent": "python-requests/2.18.4", 
+    "Via": "1.1 vegur", 
+    "X-Forwarded-For": "27.100.17.217", 
+    "X-Forwarded-Port": "443", 
+    "X-Forwarded-Proto": "https", 
+    "X-Request-Id": "2b4b7057-d248-4d98-bdba-f75fc8c5981d", 
+    "X-Request-Start": "1535094513150"
+  }, 
+  "origin": "27.100.17.217", 
+  "url": "https://httpbin.org/get?show_env=10"
+}
+</t>
+  </si>
+  <si>
+    <t>{'show_env': 11}</t>
+  </si>
+  <si>
+    <t>1.859017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "args": {
+    "show_env": "11"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -261,27 +421,27 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "58.250.17.6", 
+    "X-Forwarded-For": "27.100.17.217", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "a26b9d93-359e-40f6-8112-0da0c5aa2a73", 
-    "X-Request-Start": "1533196958188"
-  }, 
-  "origin": "58.250.17.6", 
-  "url": "https://httpbin.org/get?show_env=6"
+    "X-Request-Id": "79b759c2-4ffc-4dc1-be5b-964c5df1a400", 
+    "X-Request-Start": "1535094515217"
+  }, 
+  "origin": "27.100.17.217", 
+  "url": "https://httpbin.org/get?show_env=11"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 7}</t>
-  </si>
-  <si>
-    <t>1.130773</t>
+    <t>{'show_env': 12}</t>
+  </si>
+  <si>
+    <t>1.271263</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "7"
+    "show_env": "12"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -293,27 +453,45 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "58.250.17.6", 
+    "X-Forwarded-For": "27.100.17.217", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "00e23c2e-e838-4536-b41a-aaeaa1dc4ac5", 
-    "X-Request-Start": "1533196959543"
-  }, 
-  "origin": "58.250.17.6", 
-  "url": "https://httpbin.org/get?show_env=7"
+    "X-Request-Id": "2b74bf46-44e0-47e8-8153-0ac6802727d7", 
+    "X-Request-Start": "1535094392809"
+  }, 
+  "origin": "27.100.17.217", 
+  "url": "https://httpbin.org/get?show_env=12"
 }
 </t>
   </si>
   <si>
-    <t>{'show_env': 8}</t>
-  </si>
-  <si>
-    <t>1.119472</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>sheng</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>//input[@id="kw"]</t>
+  </si>
+  <si>
+    <t>//*[@id="su"]</t>
+  </si>
+  <si>
+    <t>2.37221</t>
   </si>
   <si>
     <t xml:space="preserve">{
   "args": {
-    "show_env": "8"
+    "show_env": "12"
   }, 
   "headers": {
     "Accept": "*/*", 
@@ -325,191 +503,13 @@
     "Total-Route-Time": "0", 
     "User-Agent": "python-requests/2.18.4", 
     "Via": "1.1 vegur", 
-    "X-Forwarded-For": "58.250.17.6", 
+    "X-Forwarded-For": "27.100.17.217", 
     "X-Forwarded-Port": "443", 
     "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "aeec4d95-2fb6-4a0b-97fe-b8a84b5fe82b", 
-    "X-Request-Start": "1533196960790"
-  }, 
-  "origin": "58.250.17.6", 
-  "url": "https://httpbin.org/get?show_env=8"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 9}</t>
-  </si>
-  <si>
-    <t>1.443181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "9"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "58.250.17.6", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "d108a7ec-bd4c-4609-add7-cae28cfb11f6", 
-    "X-Request-Start": "1533196962349"
-  }, 
-  "origin": "58.250.17.6", 
-  "url": "https://httpbin.org/get?show_env=9"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 10}</t>
-  </si>
-  <si>
-    <t>1.235115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "10"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "1", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "58.250.17.6", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "21289e91-6e1c-4d52-831b-dc07911325a4", 
-    "X-Request-Start": "1533196963712"
-  }, 
-  "origin": "58.250.17.6", 
-  "url": "https://httpbin.org/get?show_env=10"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 11}</t>
-  </si>
-  <si>
-    <t>1.187913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "11"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "58.250.17.6", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "061e4661-304d-4b87-a0fc-fa2258df9159", 
-    "X-Request-Start": "1533196965062"
-  }, 
-  "origin": "58.250.17.6", 
-  "url": "https://httpbin.org/get?show_env=11"
-}
-</t>
-  </si>
-  <si>
-    <t>{'show_env': 12}</t>
-  </si>
-  <si>
-    <t>1.427977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "12"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "183.240.20.27", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "fb0c2a65-489e-422f-9782-072c6445941a", 
-    "X-Request-Start": "1533134538374"
-  }, 
-  "origin": "183.240.20.27", 
-  "url": "https://httpbin.org/get?show_env=12"
-}
-</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>sheng</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>//input[@id="kw"]</t>
-  </si>
-  <si>
-    <t>//*[@id="su"]</t>
-  </si>
-  <si>
-    <t>1.157671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "args": {
-    "show_env": "12"
-  }, 
-  "headers": {
-    "Accept": "*/*", 
-    "Accept-Encoding": "gzip, deflate", 
-    "Connect-Time": "0", 
-    "Connection": "close", 
-    "Content-Length": "2", 
-    "Host": "httpbin.org", 
-    "Total-Route-Time": "0", 
-    "User-Agent": "python-requests/2.18.4", 
-    "Via": "1.1 vegur", 
-    "X-Forwarded-For": "58.250.17.6", 
-    "X-Forwarded-Port": "443", 
-    "X-Forwarded-Proto": "https", 
-    "X-Request-Id": "0d75a8b4-adac-4fe0-bc3a-9da4916d748d", 
-    "X-Request-Start": "1533196966392"
-  }, 
-  "origin": "58.250.17.6", 
+    "X-Request-Id": "d172b803-b582-40f7-b790-596096148a95", 
+    "X-Request-Start": "1535094517755"
+  }, 
+  "origin": "27.100.17.217", 
   "url": "https://httpbin.org/get?show_env=12"
 }
 </t>
@@ -520,7 +520,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -531,36 +531,10 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Consolas"/>
@@ -575,6 +549,29 @@
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <color rgb="00000000"/>
@@ -623,9 +620,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -633,32 +630,35 @@
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,490 +961,490 @@
   </sheetPr>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="5.6328125"/>
-    <col customWidth="1" max="2" min="2" width="23.36328125"/>
+    <col customWidth="1" max="1" min="1" width="5.6640625"/>
+    <col customWidth="1" max="2" min="2" width="23.33203125"/>
     <col customWidth="1" max="3" min="3" width="9"/>
-    <col customWidth="1" max="4" min="4" width="10.1796875"/>
-    <col customWidth="1" max="5" min="5" width="15.1796875"/>
+    <col customWidth="1" max="4" min="4" width="10.21875"/>
+    <col customWidth="1" max="5" min="5" width="15.21875"/>
     <col customWidth="1" max="6" min="6" width="9"/>
-    <col customWidth="1" max="7" min="7" width="7.26953125"/>
+    <col customWidth="1" max="7" min="7" width="7.21875"/>
     <col customWidth="1" max="8" min="8" width="11"/>
-    <col customWidth="1" max="9" min="9" width="7.26953125"/>
-    <col customWidth="1" max="10" min="10" width="8.1796875"/>
-    <col customWidth="1" max="11" min="11" width="9.1796875"/>
-    <col customWidth="1" max="13" min="13" width="19.90625"/>
-    <col customWidth="1" max="14" min="14" style="4" width="10.54296875"/>
+    <col customWidth="1" max="9" min="9" width="7.21875"/>
+    <col customWidth="1" max="10" min="10" width="8.21875"/>
+    <col customWidth="1" max="11" min="11" width="9.21875"/>
+    <col customWidth="1" max="13" min="13" width="19.88671875"/>
+    <col customWidth="1" max="14" min="14" style="3" width="10.5546875"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="40" r="1" s="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+    <row customFormat="1" customHeight="1" ht="43.2" r="1" s="6" spans="1:14">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="43" r="2" s="1" spans="1:14">
-      <c r="A2" s="1" t="n">
+    <row customFormat="1" customHeight="1" ht="28.8" r="2" s="6" spans="1:14">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="I2" s="1" t="b">
+      <c r="I2" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="3" s="1" spans="1:14">
-      <c r="A3" s="1" t="n">
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28.8" r="3" s="6" spans="1:14">
+      <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="6" t="n">
         <v>201</v>
       </c>
-      <c r="I3" s="1" t="b">
+      <c r="I3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="4" s="1" spans="1:14">
-      <c r="A4" s="1" t="n">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28.8" r="4" s="6" spans="1:14">
+      <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="5" s="1" spans="1:14">
-      <c r="A5" s="1" t="n">
+      <c r="N4" s="12" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28.8" r="5" s="6" spans="1:14">
+      <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="I5" s="1" t="b">
+      <c r="I5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="6" s="1" spans="1:14">
-      <c r="A6" s="1" t="n">
+      <c r="N5" s="12" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28.8" r="6" s="6" spans="1:14">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="6" t="n">
         <v>201</v>
       </c>
-      <c r="I6" s="1" t="b">
+      <c r="I6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="7" s="1" spans="1:14">
-      <c r="A7" s="1" t="n">
+      <c r="N6" s="12" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28.8" r="7" s="6" spans="1:14">
+      <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="8" s="1" spans="1:14">
-      <c r="A8" s="1" t="n">
+      <c r="N7" s="12" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28.8" r="8" s="6" spans="1:14">
+      <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="I8" s="1" t="b">
+      <c r="I8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="9" s="1" spans="1:14">
-      <c r="A9" s="1" t="n">
+      <c r="N8" s="12" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28.8" r="9" s="6" spans="1:14">
+      <c r="A9" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="6" t="n">
         <v>201</v>
       </c>
-      <c r="I9" s="1" t="b">
+      <c r="I9" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="10" s="1" spans="1:14">
-      <c r="A10" s="1" t="n">
+      <c r="N9" s="12" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28.8" r="10" s="6" spans="1:14">
+      <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="11" s="1" spans="1:14">
-      <c r="A11" s="1" t="n">
+      <c r="N10" s="12" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28.8" r="11" s="6" spans="1:14">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="I11" s="1" t="b">
+      <c r="I11" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="12" s="1" spans="1:14">
-      <c r="A12" s="1" t="n">
+      <c r="N11" s="12" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28.8" r="12" s="6" spans="1:14">
+      <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="6" t="n">
         <v>201</v>
       </c>
-      <c r="I12" s="1" t="b">
+      <c r="I12" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43" r="13" s="1" spans="1:14">
-      <c r="A13" s="1" t="n">
+      <c r="N12" s="12" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="28.8" r="13" s="6" spans="1:14">
+      <c r="A13" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="11" t="s"/>
+      <c r="N13" s="12" t="s"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1474,13 +1474,13 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="40" r="1" s="1" spans="1:3">
+    <row customFormat="1" customHeight="1" ht="40.05" r="1" s="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1522,25 +1522,25 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.90625"/>
-    <col customWidth="1" max="2" min="2" width="13.90625"/>
+    <col customWidth="1" max="1" min="1" width="15.88671875"/>
+    <col customWidth="1" max="2" min="2" width="13.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
     </row>
